--- a/Employee_Reports29/Crisfo Lo Nibal Q0489.xlsx
+++ b/Employee_Reports29/Crisfo Lo Nibal Q0489.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -74,7 +78,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -459,7 +463,7 @@
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="73" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -568,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -617,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -666,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -715,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -764,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -813,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -862,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -911,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -960,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1009,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1058,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1107,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1156,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1205,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1254,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1303,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1352,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1401,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1450,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1499,11 +1503,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1548,11 +1552,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1597,11 +1601,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1646,11 +1650,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1695,11 +1699,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1744,11 +1748,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1793,11 +1797,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1842,11 +1846,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1891,11 +1895,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1940,11 +1944,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1989,11 +1993,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2038,11 +2042,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2087,11 +2091,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2136,11 +2140,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2164,8 +2168,10 @@
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D36" s="3" t="n">
-        <v/>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
@@ -2183,11 +2189,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2212,8 +2218,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D37" s="3" t="n">
-        <v/>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-031</t>
+        </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
@@ -2231,11 +2239,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
@@ -2259,8 +2267,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D38" s="3" t="n">
-        <v/>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-028</t>
+        </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
@@ -2278,11 +2288,11 @@
         </is>
       </c>
       <c r="H38" s="3" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
@@ -2306,8 +2316,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D39" s="3" t="n">
-        <v/>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-021</t>
+        </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
@@ -2325,11 +2337,11 @@
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
@@ -2353,8 +2365,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D40" s="3" t="n">
-        <v/>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-030</t>
+        </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
@@ -2372,11 +2386,11 @@
         </is>
       </c>
       <c r="H40" s="3" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
@@ -2400,8 +2414,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D41" s="3" t="n">
-        <v/>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
@@ -2419,11 +2435,11 @@
         </is>
       </c>
       <c r="H41" s="3" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J41" s="3" t="inlineStr">
@@ -2456,11 +2472,11 @@
         </is>
       </c>
       <c r="H42" s="3" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
@@ -2484,8 +2500,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D43" s="3" t="n">
-        <v/>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-041</t>
+        </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
@@ -2503,11 +2521,11 @@
         </is>
       </c>
       <c r="H43" s="3" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J43" s="3" t="inlineStr">
@@ -2531,8 +2549,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D44" s="3" t="n">
-        <v/>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-003</t>
+        </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
@@ -2550,11 +2570,11 @@
         </is>
       </c>
       <c r="H44" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J44" s="3" t="inlineStr">
@@ -2578,8 +2598,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D45" s="3" t="n">
-        <v/>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-009</t>
+        </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
@@ -2597,11 +2619,11 @@
         </is>
       </c>
       <c r="H45" s="3" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I45" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J45" s="3" t="inlineStr">
@@ -2625,8 +2647,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D46" s="3" t="n">
-        <v/>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-010</t>
+        </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
@@ -2644,11 +2668,11 @@
         </is>
       </c>
       <c r="H46" s="3" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I46" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J46" s="3" t="inlineStr">
@@ -2667,9 +2691,21 @@
           <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr"/>
-      <c r="D47" s="3" t="inlineStr"/>
-      <c r="E47" s="3" t="inlineStr"/>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-001</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
           <t>28-Jul-2025</t>
@@ -2681,11 +2717,11 @@
         </is>
       </c>
       <c r="H47" s="3" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I47" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J47" s="3" t="inlineStr">
@@ -2709,8 +2745,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D48" s="3" t="n">
-        <v/>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-011</t>
+        </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
@@ -2728,11 +2766,11 @@
         </is>
       </c>
       <c r="H48" s="3" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I48" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J48" s="3" t="inlineStr">
@@ -2756,8 +2794,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D49" s="3" t="n">
-        <v/>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
@@ -2775,11 +2815,11 @@
         </is>
       </c>
       <c r="H49" s="3" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I49" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J49" s="3" t="inlineStr">
